--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3671,4 +3672,1048 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0086</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7442</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4716,4 +4717,1276 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003984</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5560</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012719</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新能源新材料股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6142</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5875</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5524</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1948</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012720</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏新兴经济一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5989,4 +5990,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5998,7 +5999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6009,17 +6010,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6029,14 +6050,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>32</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.4</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6045,14 +6088,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.039999999999999</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6061,14 +6126,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.52</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6077,13 +6164,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7968</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6165</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>52</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7043,7 +7044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7054,17 +7055,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7074,14 +7095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.51</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.2561</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7090,14 +7133,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>32</v>
-      </c>
-      <c r="D3" t="n">
-        <v>24.4</v>
+          <t>012428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -7106,14 +7171,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.039999999999999</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7122,14 +7209,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.52</v>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7841</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -7138,13 +7247,1725 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5432</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏核心制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成科技消费股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160918</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012184</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011740</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2262</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1591</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008935</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成科技消费股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008274</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0787</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000805</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002945</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163810</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011741</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009026</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银高质量发展机遇混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>67.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008275</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成行业先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010487</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银顺盈回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>96.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012185</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成创新趋势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>72.67</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>58.32</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011159</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成中小盘混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>52</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8848,7 +8849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8859,17 +8860,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8879,14 +8900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>46</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.93</v>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0035</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8895,14 +8938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.51</v>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>146.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3168</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -8911,14 +8976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.4</v>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8927,14 +9014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.039999999999999</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8943,14 +9052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.52</v>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7297</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -8959,13 +9090,1397 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5580</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4419</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2644</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.34</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.039999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>52</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>21.68</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>19.93</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>9.51</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>9.039999999999999</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>11.52</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>52</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.28</v>
       </c>
     </row>
@@ -600,6 +617,1316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>167.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7148</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008985</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启东三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2670</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达改革红利混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8390</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7902</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>169109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5435</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010225</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3397</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>910022</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012243</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红内需增长混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015102</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012439</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方红睿和三年定开混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015103</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红ESG可持续投资混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3901,7 +5228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4945,7 +6272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6217,7 +7544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7261,7 +8588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8457,7 +9784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
+++ b/数据整理/stocks/A股/上证主板/603993-洛阳钼业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>17.89</v>
+        <v>11.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>21.68</v>
+        <v>17.89</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>19.93</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>9.51</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>9.039999999999999</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>11.52</v>
+        <v>9.039999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2062 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>52</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3271</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5312</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4828</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3950</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2987</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009547</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安鼎利混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>690008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银中证内地资源主题指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2666,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.3943</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7831</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4969</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013081</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信保诚中证800有色指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>562800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1914</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159608</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证稀有金属ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>561800</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富中证稀有金属主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159881</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159880</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证有色金属行业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561330</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证有色金属矿业主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015596</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516650</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013437</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013438</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管中证有色金属指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013167</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东兴宸祥量化混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1926,7 +5247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3424,7 +6745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5228,7 +8549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6272,7 +9593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7544,7 +10865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8588,7 +11909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9782,2036 +13103,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.9024</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001410</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银新能源产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>125.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.65</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5026</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.3271</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5312</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达资源行业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4828</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4660</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003625</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4120</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3950</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009511</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信达澳银研究优选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>18.53</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>86.03</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3817</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003624</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3639</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010363</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>18.51</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3424</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006257</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>信达澳银先进智造股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15.24</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>86.72</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2987</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2943</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510410</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时上证自然资源ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009437</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2125</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1875</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>610002</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信达澳银精华配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.19</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>77.15</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005928</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1830</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>050018</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1706</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007484</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>信达澳银核心科技混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1281</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009882</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1254</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005927</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>创金合信新能源汽车主题股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1160</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009547</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华安鼎利混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>64.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1156</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005299</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1104</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001120</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0752</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001121</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>东方睿鑫热点挖掘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>88.90</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008180</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>同泰慧利混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161217</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>国投瑞银中证上游资源产业指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.03</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006233</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0528</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006132</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>万家智造优势混合A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0397</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>510170</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国联安上证大宗商品股票ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>83.06</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>690008</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>民生加银中证内地资源主题指数</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005300</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>万家成长优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0364</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009438</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>信达澳银科技创新一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>008093</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>同泰慧选混合A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0235</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>009883</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>华润元大核心动力混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>89.97</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>7.79</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0100</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>006234</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>万家汽车新趋势混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008094</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>同泰慧选混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>006133</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>万家智造优势混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>008181</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>同泰慧利混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>001614</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>东方区域发展混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>161718</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>招商沪深300高贝塔指数</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>163821</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>中银沪深300等权重指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>